--- a/src/attributions/attributions_ig_traj_242.xlsx
+++ b/src/attributions/attributions_ig_traj_242.xlsx
@@ -1004,79 +1004,79 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1597473416615726</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>-0.1852928629560283</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.007399697989912186</v>
+        <v>0.02582876708690129</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.394390953113316</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005883586863109164</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1546222201546635</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>-0.1128965570658511</v>
       </c>
       <c r="L2" t="n">
         <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.05530764681958104</v>
+        <v>-0.01919334177669472</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.3547551077851407</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.006348479976500064</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005935728705335063</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0.0004460942501916275</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.04106833650578789</v>
+        <v>0.03634996973725504</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.08546756277753539</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.02592599460731776</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1085,118 +1085,118 @@
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01052941709093627</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0.05390177972879568</v>
       </c>
       <c r="AD2" t="n">
         <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02102997030038039</v>
+        <v>-0.03307234229089386</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0.0288307940437839</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.03297282076114522</v>
+        <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.04638116269895455</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0.03707387212292311</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.0001827635380464335</v>
+        <v>-0.05753342356777046</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>0.1096357848139231</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.007934232022310268</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1277183334988939</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0.2086874958361182</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
         <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01672175725082567</v>
+        <v>0.05999034916951238</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>0.3461053309459913</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.01907400128457284</v>
+        <v>-0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.02443489673744846</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.05014238649060095</v>
       </c>
       <c r="BE2" t="n">
         <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.007160796066712562</v>
+        <v>0.03701582662652745</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>0.06760242694194125</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.002100135826040187</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.01762603052635128</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0.1038385929670587</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1205,79 +1205,79 @@
         <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04732576651118937</v>
+        <v>-0.03508397396650156</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>-0.01104911625284774</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.006210275085139265</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
         <v>-0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.09301158523597401</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0.08795592375968471</v>
       </c>
       <c r="BW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.007082509090409033</v>
+        <v>0.05595578743204209</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>0.1953311053923986</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.005490822517157475</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.05231918380081032</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>0.06222120453216987</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.008163768707693616</v>
+        <v>-0.0008345220360875479</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>-0.08376084544171912</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.001802989838936818</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
         <v>-0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.007851567897490039</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>-0.003908750777014676</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
@@ -1286,121 +1286,121 @@
         <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.01808880565784285</v>
+        <v>-0.02821183262280114</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0.03022034932286382</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.00628614609596692</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
         <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.04683362384946204</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>0.04485991350728786</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
         <v>-0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.001569081401532218</v>
+        <v>-0.001798645482121685</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>-0.09183100119236927</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0004390457574277547</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.01201606583171225</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.05607597886721162</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.02298535948117407</v>
+        <v>-0.0391966686817347</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>-0.04094917843191646</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.0107381426497709</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
         <v>-0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.007723074745350751</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>0.02703800142377881</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.005011728080651021</v>
+        <v>0.07429114256175705</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0.0260253361160034</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.02677571595246735</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.01229777498354926</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>0.05664729029473118</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
         <v>-0</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.004595508864752715</v>
+        <v>-0.007615338719262414</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>-0.05664677759403061</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.01663076157722749</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
         <v>-0</v>
@@ -1409,37 +1409,37 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.07651396338181424</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>0.03243588776027561</v>
       </c>
       <c r="EH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
         <v>-0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.007517755788589046</v>
+        <v>-0.04519555805813455</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>-0.04982625576651859</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.02357942051310487</v>
+        <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.02148225616077866</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>0.03250460189936297</v>
       </c>
       <c r="EQ2" t="n">
         <v>-0</v>
@@ -1448,109 +1448,109 @@
         <v>0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.03799392166166098</v>
+        <v>0.05892711799827492</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>-0.03894823201917998</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.005757361047479015</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
         <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.04612833373798583</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>0.04242340100665164</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.000280023646721274</v>
+        <v>-0.006116152209412397</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>-0.08712333707764303</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.001092873483131642</v>
+        <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.03495665053591963</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0.04100419002267879</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.03471323063914368</v>
+        <v>0.009340348950392142</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0.04732777467721131</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.01422110724865832</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
         <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.000474809579605059</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>0.04330085190599491</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.0005041882492006737</v>
+        <v>0.005509220688679465</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0.00307600396357208</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.03272857181440082</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.01532461524264109</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>0.005768010826467773</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>0</v>
@@ -1559,39 +1559,39 @@
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>0.05229668438109258</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.006020031155559747</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2412782746401877</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.2878147212338333</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1389090265511195</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06811726104795054</v>
+        <v>-0.06903426678540173</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>-0.1861605570832192</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
@@ -1600,25 +1600,25 @@
         <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2560439628048113</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.2577700144135838</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1516072155740714</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.05585567026096942</v>
+        <v>-0.01676982683713597</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0.1812069610603313</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
@@ -1627,106 +1627,106 @@
         <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01267198555847509</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.02997240260031061</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.03676869906659835</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.1129258614516598</v>
+        <v>-0.01091782248889533</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0.01066161805841402</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01362156524442905</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.01514748725954933</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.00973665942094442</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
         <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06971821131388831</v>
+        <v>0.03799535978859657</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.004067049017134807</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.06181591163826725</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.04255185539692295</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.02369771061363335</v>
+        <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.0321511165760441</v>
+        <v>-0.004216380830539836</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>-0.0639193299035308</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1414906708087964</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.2284602772073094</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.08074787096012495</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
         <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.0008861955579279861</v>
+        <v>-0.01842010448539014</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.07901639720775332</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
@@ -1735,22 +1735,22 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.04481977794627437</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.05833942486599913</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.04385861597235118</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.09261715607582949</v>
+        <v>-0.06472983427533363</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>-0.08219059373657751</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
@@ -1762,49 +1762,49 @@
         <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.009587531954688753</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>0.04620553626372256</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.05534025790505372</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0986743353489599</v>
+        <v>0.01785785903410116</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0.005465321145655151</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1472407346647926</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.114615607703585</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.0487230462573247</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.006317365366605245</v>
+        <v>-0.02948840970321008</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>-0.04878079628020656</v>
       </c>
       <c r="CA3" t="n">
         <v>-0</v>
@@ -1813,28 +1813,28 @@
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.06753708734640677</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.0648703088395393</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.03329787585315829</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.0005870451976565737</v>
+        <v>-0.007721770691504358</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>0.03872908045458783</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
@@ -1843,52 +1843,52 @@
         <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.008447360754303372</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0.003525744495956261</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.01251346147907148</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.0320306905585979</v>
+        <v>-0.01611087152957932</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>-0.05644652086419788</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.0615932136834842</v>
+        <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.05921382478101779</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.03404204442739523</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.02927034232696091</v>
+        <v>-0.007590635846527114</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>0.0401456629436726</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
         <v>-0</v>
@@ -1897,49 +1897,49 @@
         <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.01805831769008884</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.03323712693232195</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.05464099621670856</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.002173383830132775</v>
+        <v>0.06211845463833868</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0.04859796409482577</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01070001177120493</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.02722390994583234</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.02783640068794748</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.04015257849101932</v>
+        <v>0.02287095351202065</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0.01431597885538048</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1948,25 +1948,25 @@
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.003772873524205466</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.05460411774411725</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.01049512394052305</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.02678149502330867</v>
+        <v>0.01521494923011018</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>0.03231451210163941</v>
       </c>
       <c r="EC3" t="n">
         <v>-0</v>
@@ -1975,52 +1975,52 @@
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.1100664395124962</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.06896587327047683</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.04255612048831804</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.007141337276886888</v>
+        <v>0.02754018855389256</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>0.0253394665324788</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.04271954289349626</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.05035544475187786</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.02536315576538163</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.008148267171477644</v>
+        <v>-0.03500058140180162</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0.008463769422931347</v>
       </c>
       <c r="EU3" t="n">
         <v>-0</v>
@@ -2029,28 +2029,28 @@
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.06352315293273947</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.05914737327037439</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.03046907641288739</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.02004332167290537</v>
+        <v>-0.001121468935411549</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0.03988739638894542</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
         <v>0</v>
@@ -2059,22 +2059,22 @@
         <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.04902542982393479</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.03157828800321573</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.04833986415083051</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.04322008718990253</v>
+        <v>0.007263258386767567</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>0.03666540696353879</v>
       </c>
       <c r="FM3" t="n">
         <v>0</v>
@@ -2086,52 +2086,52 @@
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0008427917270472245</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.000422044898886936</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02476516228451239</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.002141869490158386</v>
+        <v>-0.002354695548638968</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>0.04851509601175726</v>
       </c>
       <c r="FV3" t="n">
         <v>-0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0317649915351207</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>0.0005669519955003551</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0.02688890654468967</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.04211418995605395</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
@@ -2142,160 +2142,160 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2714067643758337</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.4870340664615532</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1455723229004728</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03586069398986891</v>
+        <v>-0.1171038079518017</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>-0.4436249964418046</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2733076075981725</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.4564442769178869</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1624277012435156</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.08273792125538318</v>
+        <v>-0.05570592675916219</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.4518573142021146</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
         <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.008954873075792421</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.03678668043720053</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.03836216179904126</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.08797567655804962</v>
+        <v>-0.08439262822239568</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0.01567068857811676</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01340254325220028</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>-0.02363507836424826</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.006336328411089154</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.04944760578558498</v>
+        <v>-0.01012467495818293</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>-0.03447034086699631</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.05589601734656249</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.08346482370634739</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.01691581698354639</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.03780649541021868</v>
+        <v>0.001425139274130004</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.08288815890890448</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.1500266940496688</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.4142823062989933</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.07729613851105492</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.01923626526822604</v>
+        <v>-0.07056162875261536</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.2195072107427806</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.0604596999840659</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.1084983479853896</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.05866889128964646</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.07372973262872869</v>
+        <v>-0.1511296373082835</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.1920463743209763</v>
       </c>
       <c r="BI4" t="n">
         <v>0</v>
@@ -2328,52 +2328,52 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.01065681270443701</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.1430673738132707</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.04791512450385455</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1001646223654745</v>
+        <v>-0.003506804419984493</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0.01774829638850664</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1386825729418612</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.2174578064331273</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.03884322875779642</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.007487444837952052</v>
+        <v>-0.07027843473932166</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.1317131469424722</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
@@ -2382,25 +2382,25 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.07003434321246337</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.08493679991571336</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.0350254086187342</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.005891865320836681</v>
+        <v>-0.005132296706541574</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>0.107260316561954</v>
       </c>
       <c r="CJ4" t="n">
         <v>-0</v>
@@ -2412,49 +2412,49 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0.01116511190832582</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>1.411111576022698e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.005253336738184716</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.04709194035472856</v>
+        <v>0.01656313510158922</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>-0.02173635870421967</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.06174685538066453</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.06794519309467903</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.03870409914600666</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.01982883150617436</v>
+        <v>-0.002517826506811512</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.1129463761574095</v>
       </c>
       <c r="DB4" t="n">
         <v>0</v>
@@ -2466,22 +2466,22 @@
         <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.03116748670072723</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.04002326517017469</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.02940341820821472</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.01843815763845517</v>
+        <v>0.0444566794875837</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>-0.001614683906987056</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2490,106 +2490,106 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.01072828974938054</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>0.006081052987154392</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.009720439196999244</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0209866850076461</v>
+        <v>0.03351720870604942</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>-0.00651404814989466</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.01438501966824475</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>-0.05777594466092893</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.02172884913678988</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.0132618380024598</v>
+        <v>0.01639577769065341</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>0.05440360332127209</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE4" t="n">
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.1077872425324581</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.09693440032671177</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.03919551208102516</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.005328860800526965</v>
+        <v>0.02439302318152298</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.1195640580710318</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.04804444759808291</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.02990216264525762</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.03901763000119844</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.002457470554809723</v>
+        <v>-0.01296633880913288</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0.07094629067274934</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,25 +2598,25 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0.06432189949483554</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.06543195927951648</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.03352929395248684</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.008246082652946116</v>
+        <v>0.006229404879093165</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0.1024537790435004</v>
       </c>
       <c r="FD4" t="n">
         <v>-0</v>
@@ -2628,79 +2628,79 @@
         <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.0328326701456003</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>-0.002535719417640378</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.03960553809179333</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
         <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.02562750053489276</v>
+        <v>-0.008508884200727705</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.05172385674770193</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.0001596378971706421</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>0.004963051982165477</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.02693253112293839</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
         <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.006327585439623186</v>
+        <v>-0.008810654514323803</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.03438754936987051</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0372858696279504</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>0.04462418624405818</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.01964902975196543</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.05108333755087999</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
         <v>-0</v>
@@ -2711,10 +2711,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2738,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -2819,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2954,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
@@ -2981,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
@@ -3062,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
@@ -3143,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ5" t="n">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3334,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3415,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3496,10 +3496,10 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
@@ -3631,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
@@ -3685,10 +3685,10 @@
         <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
@@ -3849,22 +3849,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2092555256636294</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.1555227955103367</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06995427573767635</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05739924232357475</v>
+        <v>-0.08280241633837762</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-0.07228254118439849</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3876,133 +3876,133 @@
         <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2032031164877519</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.1280013609926359</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.07342525722016756</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01881385010078339</v>
+        <v>-0.05768573777505789</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>-0.07598714090533507</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>-0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005925257005405446</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.01378244307605709</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.02029985355908337</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.06038164376338419</v>
+        <v>-0.004451178988662641</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.009296517155136153</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.00474342197413865</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>-0.004937052603166965</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.003150675559788919</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
         <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03030016516921492</v>
+        <v>0.01397086337945391</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.01246458326384953</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.03224701179088503</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.01048426267962558</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.008800493304057098</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.01978541408020478</v>
+        <v>-0.008843058167262783</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>-0.01472490147678882</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.09470419513085324</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.1072825700670186</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.03466692001246453</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.01047166037388737</v>
+        <v>-0.02880010261672456</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0.02119212093019258</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
@@ -4011,22 +4011,22 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.03392770264770475</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.03149636970574076</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.0312425067020119</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.05272762431173625</v>
+        <v>-0.05775229627875221</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>-0.05909104473704765</v>
       </c>
       <c r="BI7" t="n">
         <v>0</v>
@@ -4035,52 +4035,52 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.01004758422954378</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.03556435611813727</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.03136522446729834</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
         <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.05762484756504983</v>
+        <v>0.0160377211932141</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0</v>
+        <v>0.01704690532514525</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.08727001366882281</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.05103091105067987</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.01434265502184255</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
         <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.02274915151628361</v>
+        <v>-0.01218046926464564</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>-0.01384008897907786</v>
       </c>
       <c r="CA7" t="n">
         <v>-0</v>
@@ -4092,133 +4092,133 @@
         <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.04996009371413365</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.02622308846222178</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01916443306842008</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.004217207391600208</v>
+        <v>0.007127736093176795</v>
       </c>
       <c r="CI7" t="n">
-        <v>0</v>
+        <v>0.01772200217820961</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.008361984912041718</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>0.0008607606247808709</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.005310143289268811</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
         <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.04320140206811009</v>
+        <v>-0.007075855757484145</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>-0.01179765717120735</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.04568746562739772</v>
+        <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.01997228527183853</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02236679920305712</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.01643140861784035</v>
+        <v>0.006098553888960175</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0.01817422480022265</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.03072380718267132</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.03236358042313904</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.02017779473866237</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.01876615173091657</v>
+        <v>0.05139714038333401</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0.01369322867674388</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.009512690706736576</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.005787316285419271</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.008085557643961294</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
         <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.01229617762981887</v>
+        <v>0.01937102480609069</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>-0.009748317299426336</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
@@ -4227,25 +4227,25 @@
         <v>-0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0.01220476749076608</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.02951577427682513</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.008182208027690792</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
         <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.007686764775589467</v>
+        <v>0.01498315768491325</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0.01825960522851271</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
@@ -4254,49 +4254,49 @@
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.07466337058275521</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.0315053328593496</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01826245205985942</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
         <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.007883362227836895</v>
+        <v>0.00944317674849344</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>0.01334605781814872</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.03594307345005075</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.01243019102766987</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.03112116527872794</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.002246135517427202</v>
+        <v>0.002243096035829807</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0</v>
+        <v>-0.01165242559899074</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
@@ -4305,97 +4305,97 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.04609332239012731</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.0208915055260241</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01825583707176345</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
         <v>0</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.009044521283204217</v>
+        <v>0.009264301360075101</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>0.02170654796978215</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
         <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.02240851692946044</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.01511337365004362</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.01631843673574277</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
         <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.02605618111617304</v>
+        <v>0.0113268961668335</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>0.01985781488408164</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>6.877014744184186e-05</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>7.644719732458803e-05</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.01299729352922879</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
         <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.002642398009516363</v>
+        <v>-0.001509859052916248</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0</v>
+        <v>0.01880918805336776</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.02324626247009449</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>0.001820653164314721</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.00405279887161444</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
         <v>-0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>-0</v>
+        <v>-0.005457780234660795</v>
       </c>
       <c r="GE7" t="n">
         <v>0</v>
@@ -4418,103 +4418,103 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0</v>
+        <v>0.1266462604957166</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2574117760980887</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4951432500059961</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1351941507545215</v>
+        <v>-0.0359596502453245</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.1458807809284861</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0.1005695273084039</v>
       </c>
       <c r="K8" t="n">
         <v>-0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2348286332002927</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4623139546353567</v>
+        <v>-0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.1333355898686648</v>
+        <v>-0.002737779122467324</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.0997243053547566</v>
       </c>
       <c r="P8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R8" t="n">
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>-0</v>
+        <v>0.01760666690443216</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.00727118115706724</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.0003759573960237542</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1833564385629497</v>
+        <v>-0.03898100455986269</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0.02367567826519899</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.01516222809156062</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.06800700434651451</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.08084943172907946</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.02662732033895885</v>
+        <v>-0.02746700724001907</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>-0.02875747820365326</v>
       </c>
       <c r="AH8" t="n">
         <v>-0</v>
@@ -4526,52 +4526,52 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.02170311454758471</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.04680454798613666</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.1130841665430811</v>
+        <v>-0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.02561028891109931</v>
+        <v>-0.007094937415410008</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.01299687962429524</v>
       </c>
       <c r="AQ8" t="n">
         <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.08472652476482592</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.1707642212086706</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.1656544980421544</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.09166778546295208</v>
+        <v>-0.1007914678233191</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>-0.08600565149370705</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA8" t="n">
         <v>0</v>
@@ -4580,76 +4580,76 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>0.01499549256361632</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.03737641349266694</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.2326916093045944</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.1372212740804411</v>
+        <v>0.01190784752073141</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.04702454220862393</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
         <v>-0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>0.007487808577764449</v>
       </c>
       <c r="BM8" t="n">
         <v>-0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.1104398967228304</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.02679272737508455</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1286414600365519</v>
+        <v>0.003610416424803363</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.008104688305153049</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>0.03643594286452657</v>
       </c>
       <c r="BV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.04167539533017816</v>
+        <v>-0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.1387129344300701</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.007310758904751065</v>
+        <v>-0.03598242985426318</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>-0.06421245250715174</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
@@ -4658,55 +4658,55 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>-0.02249073403637856</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.06623082312647229</v>
+        <v>-0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0.1445492662415139</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.05133294973741546</v>
+        <v>0.01066464430794283</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.04343561869056956</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0.004126862283695319</v>
       </c>
       <c r="CN8" t="n">
         <v>0</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.08538116883641726</v>
+        <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0.09947630025185149</v>
+        <v>-0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.127802452872452</v>
+        <v>0.06820944344543946</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>0.001346799260798693</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4715,49 +4715,49 @@
         <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0</v>
+        <v>-0.02108001772460196</v>
       </c>
       <c r="CW8" t="n">
         <v>-0</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.05211665555953089</v>
+        <v>0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0.1148536043386383</v>
+        <v>-0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.03048712678041677</v>
+        <v>0.01460815439289092</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.03937246904179714</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0</v>
+        <v>-0.0001534932277220459</v>
       </c>
       <c r="DF8" t="n">
         <v>0</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0.02467444736457463</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0.003217879045790379</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.2073888326742129</v>
+        <v>0.03079357996395915</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>0.001550474019576347</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
@@ -4766,223 +4766,223 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0</v>
+        <v>-0.0005372762060466832</v>
       </c>
       <c r="DO8" t="n">
         <v>0</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.06534010604730481</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0.02686210363253865</v>
+        <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.1827325466944895</v>
+        <v>0.03730876190525402</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>0.01723860783134225</v>
       </c>
       <c r="DT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW8" t="n">
-        <v>0</v>
+        <v>-0.008746059748456648</v>
       </c>
       <c r="DX8" t="n">
         <v>0</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.0500627041745491</v>
+        <v>-0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0.08737342987277766</v>
+        <v>-0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.009451038654432383</v>
+        <v>0.01650795672862657</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>0.03860945368572078</v>
       </c>
       <c r="EC8" t="n">
         <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0</v>
+        <v>-0.02203262574153988</v>
       </c>
       <c r="EG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.08275203538975351</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0.2260849742496362</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.04429082766809816</v>
+        <v>-0.003408451035381646</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.04728923408716374</v>
       </c>
       <c r="EL8" t="n">
         <v>0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>0</v>
+        <v>-0.01277627041603102</v>
       </c>
       <c r="EP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.04265394756357874</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.05416623275960154</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
-        <v>-0.04216511085195584</v>
+        <v>0.02803751493072065</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.002817743768328517</v>
       </c>
       <c r="EU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>0</v>
+        <v>-0.01808398236400945</v>
       </c>
       <c r="EY8" t="n">
         <v>0</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.05107478197386544</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0.1144026626453177</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.04877779595791193</v>
+        <v>0.02408577528846209</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>0.04115578127544132</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG8" t="n">
-        <v>0</v>
+        <v>0.007376195651755181</v>
       </c>
       <c r="FH8" t="n">
         <v>-0</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0.1116115321626685</v>
+        <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.1074078291263656</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.02018070979622351</v>
+        <v>0.01202097803954294</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>-0.002121784118489793</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP8" t="n">
-        <v>0</v>
+        <v>0.0006546982649096399</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0.02653291952247257</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.004773574883488056</v>
+        <v>0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0001651128614074816</v>
+        <v>-0.0006216824476783274</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.01139849522618542</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
         <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>-0</v>
+        <v>0.00460258118434362</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.04200879159359635</v>
+        <v>0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0126521577998784</v>
+        <v>-0</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>0.01054367872908787</v>
       </c>
       <c r="GE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF8" t="n">
         <v>-0</v>
       </c>
       <c r="GG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
